--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A4CDC-CDFB-D645-B776-73A6E008CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EAFD5-71A8-BE41-AB72-13080DB6A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>facility_name</t>
   </si>
@@ -40,19 +40,37 @@
     <t>match</t>
   </si>
   <si>
-    <t>MCDANIEL ES</t>
-  </si>
-  <si>
-    <t>Delaplaine McDaniel School</t>
-  </si>
-  <si>
-    <t>1801 N 22ND ST</t>
-  </si>
-  <si>
-    <t>1801 S 22ND ST</t>
-  </si>
-  <si>
-    <t>abbrev</t>
+    <t>Richard R Wright Elementary School</t>
+  </si>
+  <si>
+    <t>Richard R. Wright School</t>
+  </si>
+  <si>
+    <t>2700 W DAUPHIN ST</t>
+  </si>
+  <si>
+    <t>2201 N 28TH ST</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>FS Edmonds School</t>
+  </si>
+  <si>
+    <t>Franklin S. Edmonds School</t>
+  </si>
+  <si>
+    <t>8060 WILLIAMS AVE</t>
+  </si>
+  <si>
+    <t>8025 THOURON AVE</t>
+  </si>
+  <si>
+    <t>PIERCE ES @ PRATT BUILDING</t>
+  </si>
+  <si>
+    <t>2200 N 22ND ST</t>
   </si>
 </sst>
 </file>
@@ -71,6 +89,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,20 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -465,9 +482,40 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0.81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EAFD5-71A8-BE41-AB72-13080DB6A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76441BD1-073B-0847-A8F8-999732C6D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>facility_name</t>
   </si>
@@ -40,37 +40,19 @@
     <t>match</t>
   </si>
   <si>
-    <t>Richard R Wright Elementary School</t>
-  </si>
-  <si>
-    <t>Richard R. Wright School</t>
-  </si>
-  <si>
-    <t>2700 W DAUPHIN ST</t>
-  </si>
-  <si>
-    <t>2201 N 28TH ST</t>
+    <t>PSD Cassidy Elementary School</t>
+  </si>
+  <si>
+    <t>Kenderton Elementary School</t>
+  </si>
+  <si>
+    <t>6523-43 LANSDOWNE AVE Lewis C. Cassidy Elementary School</t>
+  </si>
+  <si>
+    <t>1500 W ONTARIO ST</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>FS Edmonds School</t>
-  </si>
-  <si>
-    <t>Franklin S. Edmonds School</t>
-  </si>
-  <si>
-    <t>8060 WILLIAMS AVE</t>
-  </si>
-  <si>
-    <t>8025 THOURON AVE</t>
-  </si>
-  <si>
-    <t>PIERCE ES @ PRATT BUILDING</t>
-  </si>
-  <si>
-    <t>2200 N 22ND ST</t>
   </si>
 </sst>
 </file>
@@ -89,7 +71,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,18 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -482,40 +461,9 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0.81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76441BD1-073B-0847-A8F8-999732C6D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8E051-8C54-A44F-92FD-3EEF046896DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,13 +40,13 @@
     <t>match</t>
   </si>
   <si>
-    <t>PSD Cassidy Elementary School</t>
+    <t>MAYFAIR ELEMENTARY SCHOOL</t>
   </si>
   <si>
     <t>Kenderton Elementary School</t>
   </si>
   <si>
-    <t>6523-43 LANSDOWNE AVE Lewis C. Cassidy Elementary School</t>
+    <t>2901 PRINCETON AVE</t>
   </si>
   <si>
     <t>1500 W ONTARIO ST</t>
@@ -71,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,8 +424,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -461,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8E051-8C54-A44F-92FD-3EEF046896DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4A71D-0986-804F-9992-02712E2A947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>match</t>
   </si>
   <si>
-    <t>MAYFAIR ELEMENTARY SCHOOL</t>
-  </si>
-  <si>
-    <t>Kenderton Elementary School</t>
-  </si>
-  <si>
-    <t>2901 PRINCETON AVE</t>
-  </si>
-  <si>
-    <t>1500 W ONTARIO ST</t>
+    <t>Mary McLeod Bethune School</t>
+  </si>
+  <si>
+    <t>Mary M. Bethune School</t>
+  </si>
+  <si>
+    <t>3301 Old York Road</t>
+  </si>
+  <si>
+    <t>3301 OLD YORK RD</t>
   </si>
   <si>
     <t>name</t>
@@ -424,12 +424,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -466,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4A71D-0986-804F-9992-02712E2A947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>Mary McLeod Bethune School</t>
-  </si>
-  <si>
-    <t>Mary M. Bethune School</t>
-  </si>
-  <si>
-    <t>3301 Old York Road</t>
-  </si>
-  <si>
-    <t>3301 OLD YORK RD</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,57 +420,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JB KELLY SCHOOL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John B. Kelly School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5116-60 PULASKI AVE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5116 PULASKI AVE</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROXBOROUGH HS FIELD HOUSE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Roxborough High School</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>324 HERMITAGE ST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6498 RIDGE AVE</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,60 +468,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JB KELLY SCHOOL</t>
+          <t>Fox Chase ES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John B. Kelly School</t>
+          <t>Fox Chase School</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5116-60 PULASKI AVE</t>
+          <t>700 RHAWN ST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5116 PULASKI AVE</t>
+          <t>500 RHAWN ST</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ROXBOROUGH HS FIELD HOUSE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Roxborough High School</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>324 HERMITAGE ST</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6498 RIDGE AVE</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>name</t>
+          <t>abbrev</t>
         </is>
       </c>
     </row>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D366E2-AE45-124D-A178-D9DE124C1639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>John M Patterson Elementary School</t>
+  </si>
+  <si>
+    <t>John M. Patterson School</t>
+  </si>
+  <si>
+    <t>7001 BUIST AVE</t>
+  </si>
+  <si>
+    <t>7000 BUIST AVE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +91,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,79 +415,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Fox Chase ES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fox Chase School</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>700 RHAWN ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>500 RHAWN ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>abbrev</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D366E2-AE45-124D-A178-D9DE124C1639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>John M Patterson Elementary School</t>
-  </si>
-  <si>
-    <t>John M. Patterson School</t>
-  </si>
-  <si>
-    <t>7001 BUIST AVE</t>
-  </si>
-  <si>
-    <t>7000 BUIST AVE</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,57 +420,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>William D Kelley Elementary School</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>William D. Kelley School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1601-49 N 28TH ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1601 N 28TH ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344D352-8F20-BF4B-BE57-AEAF5DAD8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>AB DAY ES</t>
+  </si>
+  <si>
+    <t>Anna B. Day School</t>
+  </si>
+  <si>
+    <t>6324-42 CRITTENDEN ST</t>
+  </si>
+  <si>
+    <t>6324 CRITTENDEN ST</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,79 +414,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>William D Kelley Elementary School</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>William D. Kelley School</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1601-49 N 28TH ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1601 N 28TH ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344D352-8F20-BF4B-BE57-AEAF5DAD8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC734D9-FE6C-E04B-BD7A-BCAE8D6486F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>match</t>
   </si>
   <si>
-    <t>AB DAY ES</t>
-  </si>
-  <si>
-    <t>Anna B. Day School</t>
-  </si>
-  <si>
-    <t>6324-42 CRITTENDEN ST</t>
-  </si>
-  <si>
-    <t>6324 CRITTENDEN ST</t>
+    <t>Pennell School</t>
+  </si>
+  <si>
+    <t>Joseph Pennell School</t>
+  </si>
+  <si>
+    <t>1800-56 W NEDRO AVE</t>
+  </si>
+  <si>
+    <t>1800 NEDRO AVE</t>
   </si>
   <si>
     <t>name</t>
@@ -71,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,10 +424,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -463,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC734D9-FE6C-E04B-BD7A-BCAE8D6486F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC1F6D-BBE2-2043-83DF-F54169FD4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>match</t>
   </si>
   <si>
-    <t>Pennell School</t>
-  </si>
-  <si>
-    <t>Joseph Pennell School</t>
-  </si>
-  <si>
-    <t>1800-56 W NEDRO AVE</t>
-  </si>
-  <si>
-    <t>1800 NEDRO AVE</t>
+    <t>GERMANTOWN FIELD HOUSE (LEEDS)</t>
+  </si>
+  <si>
+    <t>Germantown High School</t>
+  </si>
+  <si>
+    <t>1101-51 E Gorgas LN</t>
+  </si>
+  <si>
+    <t>GERMANTOWN &amp; HIGH ST</t>
   </si>
   <si>
     <t>name</t>
@@ -419,15 +419,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -464,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC1F6D-BBE2-2043-83DF-F54169FD4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FAC48-BFE6-F14F-A87A-FDA6174FEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>facility_name</t>
   </si>
@@ -40,19 +52,25 @@
     <t>match</t>
   </si>
   <si>
-    <t>GERMANTOWN FIELD HOUSE (LEEDS)</t>
-  </si>
-  <si>
-    <t>Germantown High School</t>
-  </si>
-  <si>
-    <t>1101-51 E Gorgas LN</t>
-  </si>
-  <si>
-    <t>GERMANTOWN &amp; HIGH ST</t>
+    <t>Finletter Elementary School</t>
+  </si>
+  <si>
+    <t>Kenderton Elementary School</t>
+  </si>
+  <si>
+    <t>6101 N FRONT ST</t>
+  </si>
+  <si>
+    <t>1500 W ONTARIO ST</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Fells Elementary School</t>
+  </si>
+  <si>
+    <t>900 OREGON AVE</t>
   </si>
 </sst>
 </file>
@@ -71,7 +89,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -424,8 +441,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -462,13 +482,34 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.76</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -8,31 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FAC48-BFE6-F14F-A87A-FDA6174FEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AD633-48B3-4649-9A75-F3739A0BA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>facility_name</t>
   </si>
@@ -52,25 +40,19 @@
     <t>match</t>
   </si>
   <si>
-    <t>Finletter Elementary School</t>
-  </si>
-  <si>
-    <t>Kenderton Elementary School</t>
-  </si>
-  <si>
-    <t>6101 N FRONT ST</t>
-  </si>
-  <si>
-    <t>1500 W ONTARIO ST</t>
+    <t>richard r wright elementary school</t>
+  </si>
+  <si>
+    <t>Richard R. Wright School</t>
+  </si>
+  <si>
+    <t>2700 W DAUPHIN ST</t>
+  </si>
+  <si>
+    <t>2201 N 28TH ST</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Fells Elementary School</t>
-  </si>
-  <si>
-    <t>900 OREGON AVE</t>
   </si>
 </sst>
 </file>
@@ -89,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,19 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -482,29 +462,9 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0.76</v>
-      </c>
-      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AD633-48B3-4649-9A75-F3739A0BA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A1A6CF-B53F-9F4B-A687-176FDBA97AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,19 +40,19 @@
     <t>match</t>
   </si>
   <si>
-    <t>richard r wright elementary school</t>
-  </si>
-  <si>
-    <t>Richard R. Wright School</t>
-  </si>
-  <si>
-    <t>2700 W DAUPHIN ST</t>
-  </si>
-  <si>
-    <t>2201 N 28TH ST</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>OLNEY HS</t>
+  </si>
+  <si>
+    <t>Olney School</t>
+  </si>
+  <si>
+    <t>100 E DUNCANNON AVE</t>
+  </si>
+  <si>
+    <t>5301 N WATER ST</t>
+  </si>
+  <si>
+    <t>abbrev</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,13 +418,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -462,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A1A6CF-B53F-9F4B-A687-176FDBA97AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7736B-90D7-D44B-A094-BEF2CA6D4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,19 +40,19 @@
     <t>match</t>
   </si>
   <si>
-    <t>OLNEY HS</t>
-  </si>
-  <si>
-    <t>Olney School</t>
-  </si>
-  <si>
-    <t>100 E DUNCANNON AVE</t>
-  </si>
-  <si>
-    <t>5301 N WATER ST</t>
-  </si>
-  <si>
-    <t>abbrev</t>
+    <t>RANDOLPH CAREER &amp; TECHNICAL HS</t>
+  </si>
+  <si>
+    <t>A. Philip Randolph Career and Technical High School</t>
+  </si>
+  <si>
+    <t>2901-27 HENRY AVE</t>
+  </si>
+  <si>
+    <t>3101 HENRY AVE</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -71,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,15 +419,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -463,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7736B-90D7-D44B-A094-BEF2CA6D4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F04F987-E718-7F40-8895-19C9FAC28C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,19 +40,19 @@
     <t>match</t>
   </si>
   <si>
-    <t>RANDOLPH CAREER &amp; TECHNICAL HS</t>
-  </si>
-  <si>
-    <t>A. Philip Randolph Career and Technical High School</t>
-  </si>
-  <si>
-    <t>2901-27 HENRY AVE</t>
-  </si>
-  <si>
-    <t>3101 HENRY AVE</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>BRIDESBURG ANNEX</t>
+  </si>
+  <si>
+    <t>Bridesburg School</t>
+  </si>
+  <si>
+    <t>4435 ALMOND ST</t>
+  </si>
+  <si>
+    <t>2824 JENKS ST</t>
+  </si>
+  <si>
+    <t>abbrev</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,15 +418,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -464,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F04F987-E718-7F40-8895-19C9FAC28C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>BRIDESBURG ANNEX</t>
-  </si>
-  <si>
-    <t>Bridesburg School</t>
-  </si>
-  <si>
-    <t>4435 ALMOND ST</t>
-  </si>
-  <si>
-    <t>2824 JENKS ST</t>
-  </si>
-  <si>
-    <t>abbrev</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,63 +420,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RIVERA CHILD DEVELOPMENT CENTER</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thomas Durham Child Development Center</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2603 N 5TH ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16TH &amp; LOMBARD ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B2948-DE30-E241-9445-1F9396D88321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>W.D. Kelley Elementary School</t>
+  </si>
+  <si>
+    <t>Kenderton Elementary School</t>
+  </si>
+  <si>
+    <t>1601-49 N 28TH ST</t>
+  </si>
+  <si>
+    <t>1500 W ONTARIO ST</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,82 +414,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RIVERA CHILD DEVELOPMENT CENTER</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Thomas Durham Child Development Center</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2603 N 5TH ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16TH &amp; LOMBARD ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>0.78</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B2948-DE30-E241-9445-1F9396D88321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>W.D. Kelley Elementary School</t>
-  </si>
-  <si>
-    <t>Kenderton Elementary School</t>
-  </si>
-  <si>
-    <t>1601-49 N 28TH ST</t>
-  </si>
-  <si>
-    <t>1500 W ONTARIO ST</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,61 +420,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HAVERFORD CHILD CARE BRIGHT FUTURES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4601 HAVERFORD AVE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F877732-2893-7E45-A75B-593D81FFCC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>TRINIDAD CHILD CARE CENTER</t>
+  </si>
+  <si>
+    <t>1038-48 W SEDGLEY AVE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +84,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,72 +408,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HAVERFORD CHILD CARE BRIGHT FUTURES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4601 HAVERFORD AVE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F877732-2893-7E45-A75B-593D81FFCC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>TRINIDAD CHILD CARE CENTER</t>
-  </si>
-  <si>
-    <t>1038-48 W SEDGLEY AVE</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -408,51 +420,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GIRARD ACADEMIC MUSIC PROGRAM (GAMP)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Girard Academic Music Program</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2136 RITNER ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2136 W RITNER ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>James G Blaine Elementary School</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>James G. Blaine School</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3001 W Berks Sreet</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3001 W BERKS ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B608574-5802-E24E-B02A-1172AC455E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>Philadelphia Military Academy at Elverson</t>
+  </si>
+  <si>
+    <t>Philadelphia Military Academy at Leeds</t>
+  </si>
+  <si>
+    <t>2118-60 N 13TH ST</t>
+  </si>
+  <si>
+    <t>1100 E MT PLEASANT AVE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,112 +414,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GIRARD ACADEMIC MUSIC PROGRAM (GAMP)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Girard Academic Music Program</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2136 RITNER ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2136 W RITNER ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>James G Blaine Elementary School</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>James G. Blaine School</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3001 W Berks Sreet</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3001 W BERKS ST</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B608574-5802-E24E-B02A-1172AC455E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>Philadelphia Military Academy at Elverson</t>
-  </si>
-  <si>
-    <t>Philadelphia Military Academy at Leeds</t>
-  </si>
-  <si>
-    <t>2118-60 N 13TH ST</t>
-  </si>
-  <si>
-    <t>1100 E MT PLEASANT AVE</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,61 +420,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lindley Academy Charter School</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tacony Academy Charter School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>900-14 LINDLEY AVE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1330 RHAWN ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EW RHODES MS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E. Washington Rhodes School</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3100 N 29TH ST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2900 W CLEARFIELD ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>abbrev</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OLNEY ES ANNEX (TRIUMPHANT FAITH-TABOR ROAD)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>411-13 E TABOR RD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LABRUM MS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10800 HAWLEY RD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B24FF0-BB63-CE41-BA0F-F68DD5D892AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>John L. Kinsey School Building 21</t>
+  </si>
+  <si>
+    <t>John L. Kinsey School</t>
+  </si>
+  <si>
+    <t>6501-33 LIMEKILN PK</t>
+  </si>
+  <si>
+    <t>65TH &amp; LIMEKILN PIKE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,152 +414,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lindley Academy Charter School</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tacony Academy Charter School</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>900-14 LINDLEY AVE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1330 RHAWN ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EW RHODES MS</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>E. Washington Rhodes School</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3100 N 29TH ST</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2900 W CLEARFIELD ST</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>abbrev</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>OLNEY ES ANNEX (TRIUMPHANT FAITH-TABOR ROAD)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>411-13 E TABOR RD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LABRUM MS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10800 HAWLEY RD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B24FF0-BB63-CE41-BA0F-F68DD5D892AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4290DC-A83B-E344-AC96-E62EA5133379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>facility_name</t>
   </si>
@@ -40,19 +40,25 @@
     <t>match</t>
   </si>
   <si>
-    <t>John L. Kinsey School Building 21</t>
-  </si>
-  <si>
-    <t>John L. Kinsey School</t>
-  </si>
-  <si>
-    <t>6501-33 LIMEKILN PK</t>
-  </si>
-  <si>
-    <t>65TH &amp; LIMEKILN PIKE</t>
+    <t>THE VAUX SCHOOL</t>
+  </si>
+  <si>
+    <t>The U School</t>
+  </si>
+  <si>
+    <t>2300 MASTER ST</t>
+  </si>
+  <si>
+    <t>2000 N 7TH ST</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Fell D Newlin</t>
+  </si>
+  <si>
+    <t>900 OREGON AVE</t>
   </si>
 </sst>
 </file>
@@ -71,6 +77,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,17 +425,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -465,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -473,19 +480,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0.77</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>

--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,88 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4290DC-A83B-E344-AC96-E62EA5133379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>THE VAUX SCHOOL</t>
-  </si>
-  <si>
-    <t>The U School</t>
-  </si>
-  <si>
-    <t>2300 MASTER ST</t>
-  </si>
-  <si>
-    <t>2000 N 7TH ST</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Fell D Newlin</t>
-  </si>
-  <si>
-    <t>900 OREGON AVE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,76 +420,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Spruance ES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gilbert Spruance School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1601 LEVICK ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6401 HORROCKS ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>abbrev</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C17DFB-D382-004A-85D5-D42E78295FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>BARTRAM HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>Bartram Business</t>
+  </si>
+  <si>
+    <t>5801 ELMWOOD AVE</t>
+  </si>
+  <si>
+    <t>2401 S 67TH ST</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>WEST PHILA HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>West Philadelphia High School</t>
+  </si>
+  <si>
+    <t>4901-09 SPRUCE ST</t>
+  </si>
+  <si>
+    <t>4901 CHESTNUT ST</t>
+  </si>
+  <si>
+    <t>abbrev</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +106,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,82 +430,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Spruance ES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gilbert Spruance School</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1601 LEVICK ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6401 HORROCKS ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>abbrev</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0.62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C17DFB-D382-004A-85D5-D42E78295FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>school_name</t>
-  </si>
-  <si>
-    <t>facility_address</t>
-  </si>
-  <si>
-    <t>school_address</t>
-  </si>
-  <si>
-    <t>match_probability</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>BARTRAM HS FIELD HOUSE</t>
-  </si>
-  <si>
-    <t>Bartram Business</t>
-  </si>
-  <si>
-    <t>5801 ELMWOOD AVE</t>
-  </si>
-  <si>
-    <t>2401 S 67TH ST</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>WEST PHILA HS FIELD HOUSE</t>
-  </si>
-  <si>
-    <t>West Philadelphia High School</t>
-  </si>
-  <si>
-    <t>4901-09 SPRUCE ST</t>
-  </si>
-  <si>
-    <t>4901 CHESTNUT ST</t>
-  </si>
-  <si>
-    <t>abbrev</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,81 +420,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>facility_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>school_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>facility_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>school_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match_probability</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>West Philadelphia Field House</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>West Philadelphia High School</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4901-09 SPRUCE ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4901 CHESTNUT ST</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0.62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mastery Charter School Pastorius-Richardson Elementary</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mastery Charter School at Shoemaker</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>926-76 E CHELTEN AVE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5301 MEDIA ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Verree House</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8598 Verree RD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Frankford HS Field (Field House)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5126 Large ST</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bus Garage (Broad St)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2600 N BROAD ST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/interim/fuzzy_matches.xlsx
+++ b/data/interim/fuzzy_matches.xlsx
@@ -1,37 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FA59B5-57E1-994B-A3A4-DF9AB217CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>facility_address</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>match_probability</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>Fredrick Douglas Mastery Charter Sch. AHERA</t>
+  </si>
+  <si>
+    <t>Frederick Douglass Mastery Charter School</t>
+  </si>
+  <si>
+    <t>2118-34 W NORRIS ST</t>
+  </si>
+  <si>
+    <t>2118 W NORRIS ST</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Bluford Charter School</t>
+  </si>
+  <si>
+    <t>Belmont Charter School</t>
+  </si>
+  <si>
+    <t>5720 MEDIA ST</t>
+  </si>
+  <si>
+    <t>4030 BROWN ST</t>
+  </si>
+  <si>
+    <t>Mastery Charter at Thomas</t>
+  </si>
+  <si>
+    <t>Mastery Charter School at Thomas Campus</t>
+  </si>
+  <si>
+    <t>927 Johnston Street</t>
+  </si>
+  <si>
+    <t>927 JOHNSTON ST</t>
+  </si>
+  <si>
+    <t>Feltonville School</t>
+  </si>
+  <si>
+    <t>Feltonville Intermediate School</t>
+  </si>
+  <si>
+    <t>206-10 E COURTLAND ST</t>
+  </si>
+  <si>
+    <t>238 E WYOMING AVE</t>
+  </si>
+  <si>
+    <t>Duckery School</t>
+  </si>
+  <si>
+    <t>The U School</t>
+  </si>
+  <si>
+    <t>1510 DIAMOND ST</t>
+  </si>
+  <si>
+    <t>2000 N 7TH ST</t>
+  </si>
+  <si>
+    <t>abbrev</t>
+  </si>
+  <si>
+    <t>Building 21 @ Kinsey School</t>
+  </si>
+  <si>
+    <t>John L. Kinsey School</t>
+  </si>
+  <si>
+    <t>6501-33 LIMEKILN PK</t>
+  </si>
+  <si>
+    <t>65TH &amp; LIMEKILN PIKE</t>
+  </si>
+  <si>
+    <t>Pennell School Kindergarten Mobile bldg</t>
+  </si>
+  <si>
+    <t>1800 W NEDRO AVE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +159,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,172 +483,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>facility_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>school_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>facility_address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>school_address</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>match_probability</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>West Philadelphia Field House</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>West Philadelphia High School</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4901-09 SPRUCE ST</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4901 CHESTNUT ST</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mastery Charter School Pastorius-Richardson Elementary</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mastery Charter School at Shoemaker</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>926-76 E CHELTEN AVE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5301 MEDIA ST</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0.82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>0.78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
         <v>0.73</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>The Verree House</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8598 Verree RD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Frankford HS Field (Field House)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5126 Large ST</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bus Garage (Broad St)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2600 N BROAD ST</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0.73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>0.71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>